--- a/Identifier/labeled_questions.xlsx
+++ b/Identifier/labeled_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefva\Documents\Master\Thesis_s2\Code\Identifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E3F47-DE90-4E4F-A61C-716A06CFA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C36611-7B62-4172-ABCC-11BE472C6500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1049">
   <si>
     <t xml:space="preserve">question </t>
   </si>
@@ -2694,6 +2694,492 @@
   </si>
   <si>
     <t>Kan de minister per dag tot en met 15 september het aantal inschrijvingen alsook het aantal aanvragen voor leerlingenvervoer meedelen?</t>
+  </si>
+  <si>
+    <t>Is er een positieve trend waar te nemen en zo ja, welke?</t>
+  </si>
+  <si>
+    <t>2021 2022Antwerpen 274 415Limburg 23 44Oost-Vlaanderen 121 195Vlaams-Brabant 58 85West-Vlaanderen 59 92Daarnaast geeft onderstaande tabel weer hoeveel e-stepslachtoffers er vielen in die ongevallen, opgedeeld naar provincie en letselernst (bron: FOD Economie, Statbel).</t>
+  </si>
+  <si>
+    <t>214 kreeg ik volgende tabel van de minister voor het jaar 2018:Hoe wordt het PVB ingezet in 2018?% onderbenutting Aantal personenEnkel via voucher 0,95 % 21.015Enkel via cash nVZA 19,74 % 1.784Enkel via cash VZA 6,87 % 53Voucher en cash nVZA 12,37 % 1.056Voucher en cash VZA 4,03 % 41Cash VZA en cash nVZA 13,61 % 313Voucher, cash VZA en cash nVZA 11,90 % 158(nog) geen besteding cash of voucher99,35 % 323Allen 3,50 % 24.420Kan de minister een update van die tabel bezorgen voor de jaren 2019, 2020 en 2021?</t>
+  </si>
+  <si>
+    <t>Wanneer is die aanvraag ingediend?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister de cijfers ten opzichte van voorgaande jaren?</t>
+  </si>
+  <si>
+    <t>Wat zijn de verschillen van onderbenutting wanneer het PVB is verkregen via de reguliere procedure of via de automatische toekenningsgroepen (opgedeeld per automatische toekenningsgroep)?</t>
+  </si>
+  <si>
+    <t>Wanneer is het proces-verbaal door het Departement Omgeving opgemaakt?</t>
+  </si>
+  <si>
+    <t>Welk aandeel van de kruispunten in Vlaanderen, beheerd door het Agentschap Wegen en Verkeer (AWV), is intussen conflictvrij?</t>
+  </si>
+  <si>
+    <t>Worden er veel afwijkingen vastgesteld op de tweejaarlijkse ijking?</t>
+  </si>
+  <si>
+    <t>&gt; 60 jaar?</t>
+  </si>
+  <si>
+    <t>De gegevens voor 2022 worden momenteel verwerkt zodat ook deze ter beschikking kunnen worden gesteld via het Dataplatform Departement Werk en Sociale Economie ( Open data | Vlaanderen.be)a-b) Overzicht van het aantal maatwerkbedrijven, opgedeeld naar hoeveel maatwerkers er actief zijn binnen de onderneming en contingent2022 - Totaal 126 126 126 124 122 122Toegekend contingent19.740 19.740 19.740 20.014 20.082 20.082Het aantal maatwerkbedrijven daalt over de kwartalen heen, omwille van een fusiebeweging binnen de sector die in 2021 is ingezet en zich nog steeds verderzet.</t>
+  </si>
+  <si>
+    <t>Vanaf wanneer is de geboden ondersteuning niet voldoende aangepast?</t>
+  </si>
+  <si>
+    <t>Welke van die dossiers staan al op het meerjaren-GIP en voor welk bedrag per jaar?</t>
+  </si>
+  <si>
+    <t>Deze manier van evalueren laat toe te achterhalen hoeveel bestuurders zich de campagne na afloop kunnen herinneren (bereik) en wat het effect autobestuurder.</t>
+  </si>
+  <si>
+    <t>Of dat lukt, zal vooral afhangen van het aantal mensen dat een ticket individueel maatwerk krijgt en van hoeveel bedrijven de inspanning willen doen om personen met zo’n ticket tewerk te stellen.</t>
+  </si>
+  <si>
+    <t>Zijn er in de nabije toekomst nog bijkomende initiatieven gepland om studenten met een handicap of functiebeperking te ondersteunen? Zo ja, wat is het plan van aanpak en het budget?</t>
+  </si>
+  <si>
+    <t>Wanneer zal de derde oproep door de Vlaamse Regering in de markt worden gezet?</t>
+  </si>
+  <si>
+    <t>Hoe evolueert het aantal aanvragen en goedkeuringen in het kader van de projectoproep Landbouw - Natuur doorheen de jaren?</t>
+  </si>
+  <si>
+    <t>c) Hoe evalueert de minister die cijfers?</t>
+  </si>
+  <si>
+    <t>Is het ziekteverzuim bij De Lijn gestegen sinds het ziektebriefje voor 1 dag is afgeschaft?</t>
+  </si>
+  <si>
+    <t>Uit welke steun bestaat deze 14,2 miljoen euro?</t>
+  </si>
+  <si>
+    <t>Is de minister tevreden over het aantal toegekende subsidies en de effecten van de oproep?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van alle lokale dienstencentra in Vlaanderen?</t>
+  </si>
+  <si>
+    <t>Zal de minister deze legislatuur nog budgetten reserveren voor de stelplaatsen in Antwerpen, behalve de reguliere budgetten voor onderhoud en werking?</t>
+  </si>
+  <si>
+    <t>Plant de minister initiatieven om deze anomalie recht te zetten? Zo ja, welke en wanneer kunnen we dat verwachten?</t>
+  </si>
+  <si>
+    <t>b) Wanneer zijn deze toestemmingen/documenten aangevraagd?</t>
+  </si>
+  <si>
+    <t>Provincie Indiener Project Totaal projectbedrag (euro)Komt in aanmerking voor subsidiëring?</t>
+  </si>
+  <si>
+    <t>Welke eindbestemming werd er voor elke grond gevonden?</t>
+  </si>
+  <si>
+    <t>b) Kan de minister een lijst geven - ingedeeld naar provincie en naar gemeente of stad - van alle kruispunten die momenteel op de lijst van zwarte kruispunten staan?</t>
+  </si>
+  <si>
+    <t>werd de studie betaald met het voorbehouden budget van 700.000 euro van toenmalig bevoegd minister Weyts in 2017?</t>
+  </si>
+  <si>
+    <t>Welke voorwaarden rond tewerkstelling zijn er gekoppeld aan deze steun en wat zijn de termijnen die men moet naleven?</t>
+  </si>
+  <si>
+    <t>Vanaf wanneer zal de maatregel ingaan?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+  </si>
+  <si>
+    <t>Komen die gronden ook voor in de cijfers op de slide van de presentatie?</t>
+  </si>
+  <si>
+    <t>Welke timing zal daarbij gehanteerd worden?</t>
+  </si>
+  <si>
+    <t>Wat was de kostprijs van deze studie en waarom moet er door datzelfde studiebureau opnieuw bijkomend onderzoek worden gedaan naar de kilometerheffing?</t>
+  </si>
+  <si>
+    <t>d) Zal er elders voldoende stelplaatscapaciteit beschikbaar zijn om dat op te vangen?</t>
+  </si>
+  <si>
+    <t>b) Wanneer loopt deze aanvraagperiode dan af?</t>
+  </si>
+  <si>
+    <t>Als er grote verschillen zijn in het aantal aanvragen per provincie, hoe verklaart de minister dan die verschillen?</t>
+  </si>
+  <si>
+    <t>a) Zullen de rijexamencentra voorzien worden van extra middelen om die toestellen b) Heeft deze nieuwe regelgeving een financiële impact op de kostprijs van het rijexamen voor de kandidaat-bestuurder? Zo ja, welke?</t>
+  </si>
+  <si>
+    <t>De gegevens voor 2022 worden momenteel verwerkt zodat ook deze ter beschikking kunnen worden gesteld via het Dataplatform Departement Werk en Sociale Economie ( Open data | Vlaanderen.be)a-b) Overzicht van het aantal LDE-ondernemingen, opgedeeld naar hoeveel LDE’ers er actief zijn binnen de onderneming (ondernemingen met minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+) en contingent.</t>
+  </si>
+  <si>
+    <t>Wanneer werd de opdracht van het studiebureau Tractebel Engineering nv afgerond?</t>
+  </si>
+  <si>
+    <t>Kan de minister meedelen telkens voor het jaar 2021, 2022 en 2023?</t>
+  </si>
+  <si>
+    <t>Kan de minister een oplijsting bezorgen van de West-Vlaamse scholen en verenigingen die deelnamen in het schooljaar 2022-2023, met vermelding van de gemeente waarbinnen de school of vereniging gevestigd is, de status van het actieplan (al dan niet voltooid) en de toegekende beloning per school en per vereniging?</t>
+  </si>
+  <si>
+    <t>a) Is de minister tevreden over het aantal aanvragen?</t>
+  </si>
+  <si>
+    <t>Wanneer is dat voor het laatst gemeten?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de schoolroutes in Limburg waar verkeersslachtoffers bij 6- tot 18-jarigen vielen in de laatste vijf jaar?</t>
+  </si>
+  <si>
+    <t>Welke timing wordt voor het volledige project gehanteerd?</t>
+  </si>
+  <si>
+    <t>Kunnen de cijfers van de diversiteitsonderzoeken van 2021 en 2022 bekendgemaakt worden, aangezien ze aanwezig blijken?</t>
+  </si>
+  <si>
+    <t>Hoe breed is het tweerichtingsfietspad langs de Lierselei?</t>
+  </si>
+  <si>
+    <t>Waren er in het schooljaar 2021-2022 tekorten aan leerwerkplekken?</t>
+  </si>
+  <si>
+    <t>b) Hoe evalueert de minister die cijfers?</t>
+  </si>
+  <si>
+    <t>Hoe is de verhouding in bekeuringen van Belgische ten opzichte van buitenlandse vrachtvervoerders?</t>
+  </si>
+  <si>
+    <t>Acht de minister het vooropgestelde budget voor de subsidie voldoende?</t>
+  </si>
+  <si>
+    <t>Welk aandeel van deze gronden?</t>
+  </si>
+  <si>
+    <t>Wanneer zal de volgende en zevende oproep plaatsvinden?</t>
+  </si>
+  <si>
+    <t>Kan de minister een inschatting geven over de jaarlijkse meerkosten om alle vroegere rob-plaatsen voor zware zorgprofielen om te zetten naar rvt-plaatsen?</t>
+  </si>
+  <si>
+    <t>Wat zijn de grootste hordes die nog genomen moeten worden om de deadline wel te halen?</t>
+  </si>
+  <si>
+    <t>Is het vooropstelde budget nog steeds haalbaar op basis van de al ingediende subsidieaanvragen?</t>
+  </si>
+  <si>
+    <t>Waarvoor wordt dit ‘overig aangegeven areaal’ ingezet? Graag per categorie van gebruik?</t>
+  </si>
+  <si>
+    <t>Is er nog een ruimere evaluatie gepland van de heraanleg van de Tiensepoort en tegen wanneer zal die evaluatie klaar zijn?</t>
+  </si>
+  <si>
+    <t>b) Hoe kijkt de minister naar die cijfers?</t>
+  </si>
+  <si>
+    <t>Het is voor VRT niet duidelijk wat precies bedoeld wordt met ‘hoeveel sportwedstrijden en -competities’ er werden uitgezonden.</t>
+  </si>
+  <si>
+    <t>Voor de telewerkmiddelen is het niet mogelijk om na te gaan hoeveel personeelsleden daarvan gebruik hebben gemaakt.</t>
+  </si>
+  <si>
+    <t>Is er een definitie beschikbaar van ‘onvoldoende aangepaste ondersteuning’?</t>
+  </si>
+  <si>
+    <t>c) Tegen wanneer wordt een nieuwe versie gepland?</t>
+  </si>
+  <si>
+    <t>Wat de vangplanken betreft die geplaatst werden voor 1 januari 2020:a) Wanneer werden die al bestaande beschermplanken nog eens gecontroleerd en onderhouden?</t>
+  </si>
+  <si>
+    <t>a) Een overzicht van het aantal LDE-ondernemingen, opgedeeld naar hoeveel LDE’ers er actief zijn binnen de onderneming (ondernemingen met minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+).</t>
+  </si>
+  <si>
+    <t>Is er al een concrete datum meegedeeld?</t>
+  </si>
+  <si>
+    <t>Welke timing is er vooropgesteld om de consolidatieoefening, het hervormingsvoorstel en het uitvoeringsplan rond te hebben?</t>
+  </si>
+  <si>
+    <t>Wat is de evolutie sinds 2021?</t>
+  </si>
+  <si>
+    <t>Zijn er naast deze 14,2 miljoen euro nog andere subsidies of financiële ondersteuning gegeven aan Sappi?</t>
+  </si>
+  <si>
+    <t>Welke budgetten werden al besteed en welke dienen nog gereserveerd te worden voor de knelpunten die nog uitgevoerd dienen te worden?</t>
+  </si>
+  <si>
+    <t>Wanneer is de minister hiervoor in overleg gegaan met zijn federale collega-minister?</t>
+  </si>
+  <si>
+    <t>Wordt die voorraad nog verder aangevuld tegen de winter of is dat de capaciteit om voorbereid te zijn?</t>
+  </si>
+  <si>
+    <t>Kan de minister al een indicatieve timing geven voor het verhogen en vervangen van de bruggen?</t>
+  </si>
+  <si>
+    <t>Wat is de intensiteit op het drukste uur langs de Lierselei?</t>
+  </si>
+  <si>
+    <t>c) Is de langere wachttijd voor een oproep merkbaar bij het aantal aanvragen?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen die werken plaatsvinden?</t>
+  </si>
+  <si>
+    <t>Wanneer werden de metingen precies uitgevoerd?</t>
+  </si>
+  <si>
+    <t>Hoe groot is het ‘kort’ ziekteverzuim bij De Lijn?</t>
+  </si>
+  <si>
+    <t>Wat zijn de criteria om een werkzoekende een ticket individueel maatwerk voor 2 jaar te geven in plaats van een ticket voor individueel maatwerk voor een traject van 5 jaar?</t>
+  </si>
+  <si>
+    <t>Wanneer zal er in een definitieve afsluiting worden voorzien?</t>
+  </si>
+  <si>
+    <t>Welke budgetten werden uitgetrokken om de toepassing te bouwen en uit te rollen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de ontvangen klachten voor mei, augustus en september 2023?</t>
+  </si>
+  <si>
+    <t>Is er een evaluatie gebeurd over de berekening van de beloningen?</t>
+  </si>
+  <si>
+    <t>Werden alle beschikbare leerwerkplekken ingevuld?</t>
+  </si>
+  <si>
+    <t>Wanneer kunnen we de analyse in het parlement verwachten?</t>
+  </si>
+  <si>
+    <t>a) Kan de minister een lijst geven - ingedeeld naar provincie en naar gemeente of stad - van alle kruispunten die in hun totaliteit (dus alle takken) volledig conflictvrij zijn (in absolute aantallen en procentueel)?</t>
+  </si>
+  <si>
+    <t>Welke vertragingen zijn er gemiddeld?</t>
+  </si>
+  <si>
+    <t>Hoe groot is het ‘middellang’ ziekteverzuim bij De Lijn?</t>
+  </si>
+  <si>
+    <t>Hoe staat de minister tegenover een snelheidsverlaging naar 50 km/u op de Lierselei, en meer in het algemeen op wegen waar 70 km/u de maximumsnelheid is en er geen vrijliggend fietspad aanwezig is?</t>
+  </si>
+  <si>
+    <t>Wat was de verwachte duur van de verwijdering?</t>
+  </si>
+  <si>
+    <t>Wat zal de (na) bestemming zijn van de strook verharding?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de resultaten van de zesde oproep voor huursubsidies in het onderwijs?</t>
+  </si>
+  <si>
+    <t>Wat is de vooropgestelde datum van de effectieve inwerkingtreding?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem dat op dit knelpunt gesignaleerd was, welke maatregelen hier genomen werden, welke resultaten dit oplevert en hoeveel het budget bedroeg?</t>
+  </si>
+  <si>
+    <t>De federale overheid bleef na de zesde staatshervorming instaan voor de financiering Om hoeveel woongelegenheden gaat dit in Vlaanderen?</t>
+  </si>
+  <si>
+    <t>Wanneer zal de vergunning van de tramstelplaats in de Jan Van de Wouwerstraat in Hoboken verlopen?</t>
+  </si>
+  <si>
+    <t>Hoe groot is het ‘globaal’ ziekteverzuim bij De Lijn?</t>
+  </si>
+  <si>
+    <t>Is er een termijn bepaald van hoelang de persoon met een handicap ondersteund moet worden door bijvoorbeeld een woonzorgcentrum of een psychiatrische instelling?</t>
+  </si>
+  <si>
+    <t>Klopt het dat de files voor het gemotoriseerd verkeer op de Tiensesteenweg langer zijn geworden ten gevolge van de heraanleg van de Tiensepoort?</t>
+  </si>
+  <si>
+    <t>Zijn de files richting Tiensepoort op de vesten verminderd, vergroot of hetzelfde gebleven?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welke maatregelen hier genomen worden, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+  </si>
+  <si>
+    <t>Als de 100 miljoen niet gebruikt wordt, wat zal de minister dan met het overschot van dat budget doen?</t>
+  </si>
+  <si>
+    <t>Wat zijn per grond nog de geplande initiatieven?</t>
+  </si>
+  <si>
+    <t>Zijn er al resultaten beschikbaar die gedeeld kunnen worden?</t>
+  </si>
+  <si>
+    <t>b) Welke plaatsen werden gerealiseerd tussen 1 januari 2020 en heden?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem stappen en timing hierin worden vooropgesteld?</t>
+  </si>
+  <si>
+    <t>In verband met de kostprijs en besparing daarop:a) Wat was de jaarlijkse investeringskostprijs in de voorbije 5 jaar om meer gericht te kunnen strooien?</t>
+  </si>
+  <si>
+    <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ingeschreven SUV’s?</t>
+  </si>
+  <si>
+    <t>Waren er in het schooljaar 2022-2023 tekorten aan leerwerkplekken?</t>
+  </si>
+  <si>
+    <t>Vroeger werd er ‘wild’ gestrooid maar de laatste jaren meer gericht op basis van weersvoorspellingen, metingen en met materiaal dat beter bepaalt hoeveel en waar exact er gestrooid moet worden.</t>
+  </si>
+  <si>
+    <t>a) Een overzicht van het aantal maatwerkondernemingen, opgedeeld naar hoeveel maatwerkers er actief zijn binnen de onderneming.</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welke maatregelen hier genomen zullen worden, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+  </si>
+  <si>
+    <t>Welke woonzorgvoorzieningen kregen een Kappa-controle in de jaren 2021, 2022 en tot op heden in 2023?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van die knelpunten met opname van locatie, het probleem van dit knelpunt, welk onderzoek hier concreet loopt, welke verdere stappen en timing hierin worden vooropgesteld en hoeveel het budget bedraagt?</t>
+  </si>
+  <si>
+    <t>VDAB heeft geen data over het aantal “oudkomers” die in de voorbije 10 jaar verplicht werden door VDAB om een inburgeringstraject te volgen, wel hoeveel keer werkzoekenden de opdracht kregen door de VDAB bemiddelaar om een inburgeringstraject te volgen sinds de hernieuwde samenwerking in 2022.</t>
+  </si>
+  <si>
+    <t>b) Wat was de besparing in de hoeveelheid strooizout, kostprijs van strooizout en ook werkuren door dat meer gericht strooien?</t>
+  </si>
+  <si>
+    <t>Beschikt de minister over cijfers van het aantal aannemers dat zijn lidmaatschap stop wenst te zetten? Zo ja, kan hij die meedelen?</t>
+  </si>
+  <si>
+    <t>Wanneer zal De Lijn de alternatieve stelplaatsstudie opleveren?</t>
+  </si>
+  <si>
+    <t>Wanneer verwacht de minister het resultaat van deze studie?</t>
+  </si>
+  <si>
+    <t>Wanneer kunnen de richtlijnen daaromtrent verwacht worden?</t>
+  </si>
+  <si>
+    <t>Is de minister tevreden met de geografische spreiding van de aanvragen?</t>
+  </si>
+  <si>
+    <t>Waarvoor is het bedrag van 9 miljoen euro exact bestemd?</t>
+  </si>
+  <si>
+    <t>Hoe verhouden deze cijfers zich tot het aantal 6- tot 18-jarige inwoners in de provincie?</t>
+  </si>
+  <si>
+    <t>Hoe verhoudt dat zich tot het totaalaantal bewoners in een woonzorgcentrum?</t>
+  </si>
+  <si>
+    <t>Welk subsidiebudget werd vrijgemaakt voor deze oproep?</t>
+  </si>
+  <si>
+    <t>Wat is de laatste stand van zaken in de uitvoering van het akkoord dat door beide landen met bemiddeling van de EU gesloten werd?</t>
+  </si>
+  <si>
+    <t>Hoe groot is het ‘lang’ ziekteverzuim bij De Lijn?</t>
+  </si>
+  <si>
+    <t>Wat zijn de gevolgen gekoppeld aan het niet voldoen?</t>
+  </si>
+  <si>
+    <t>Welke timing heeft de minister voor ogen om de actie in haar geheel af te ronden?</t>
+  </si>
+  <si>
+    <t>En wie op basis van zijn functie een laptop, GSM of draagtas nodig heeft die krijgt er één.</t>
+  </si>
+  <si>
+    <t>Over welke grond (locatie, hoeveelheid, vervuilingsgraad en juridisch statuut) gaat het precies?</t>
+  </si>
+  <si>
+    <t>Hoe verhouden deze cijfers zich tot het aantal ongevallen met 6- tot 18-jarigen in andere provincies?</t>
+  </si>
+  <si>
+    <t>Zullen scholen vacante uren kunnen omzetten in een krediet om flexi-jobbers te kunnen betalen?</t>
+  </si>
+  <si>
+    <t>Hebben die geen gronden in bezit/gebruik (en dan verdwijnen er ook geen ha in de data als we die niet meetellen)?</t>
+  </si>
+  <si>
+    <t>Welk gevolg werd er gegeven aan de dossiers?</t>
+  </si>
+  <si>
+    <t>a) Een overzicht van het aantal ondernemingen dat werkt met individueel maatwerkers, opgedeeld naar hoeveel individueel maatwerkers er actief zijn binnen de onderneming (ondernemingen met: minder dan 5, 5-10, 11-20, 21-50, 51-100, 100+).</t>
+  </si>
+  <si>
+    <t>b) Als blijkt dat er nog budget over is, wat zal de minister daar dan mee doen?</t>
+  </si>
+  <si>
+    <t>Deels?</t>
+  </si>
+  <si>
+    <t>Is het gebruik van iPads en gsm’s achter het stuur wel toegestaan voor chauffeurs?</t>
+  </si>
+  <si>
+    <t>Beschikt de minister over de voornaamste reden van afwijzing?</t>
+  </si>
+  <si>
+    <t>Hoe lang worden ze al gebruikt?</t>
+  </si>
+  <si>
+    <t>In 2022, hoeveel sportwedstrijden en -competities werden rechtstreeks uitgezonden op de VRT?</t>
+  </si>
+  <si>
+    <t>STAGEbonussen in schooljaar 2021-2022?</t>
+  </si>
+  <si>
+    <t>Maakt die trajectcontrole langs de N368 effectief deel uit van de twintig nieuwe locaties die dit jaar door AWV werden geselecteerd?</t>
+  </si>
+  <si>
+    <t>Wat is de verhouding tussen het aantal ongevallen met personenwagens en het aantal ingeschreven personenwagens, zonder de SUV’s?</t>
+  </si>
+  <si>
+    <t>Kan de minister-president, meer specifiek voor het arrondissement Mechelen, een overzicht geven van de lokale straat-, buurt- of verenigingsinitiatieven die in 2023 en 2022 een feestcheque ontvingen?</t>
+  </si>
+  <si>
+    <t>e) Wordt voor het totaal van deze 674.000ha hectaresteun toegekend?</t>
+  </si>
+  <si>
+    <t>Worden in 2023 en 2024 specifieke acties opgezet op basis van wat men heeft geleerd uit de voorgaande jaren? Zo ja, welke en wat zijn de resultaten daarvan?</t>
+  </si>
+  <si>
+    <t>Graag verduidelijking over die extra 55-60.000ha:a) Onder welke categorieën worden deze gronden in het betaalorgaan genoteerd zodat ze daarna uit de cijfers kunnen gefilterd worden richting Statbel?</t>
+  </si>
+  <si>
+    <t>2.Hoe en wanneer kan dit initiatief verder worden uitgerold over heel Vlaanderen ?</t>
+  </si>
+  <si>
+    <t>Wat was de kostprijs van de uitwerking van het ontwerp van de N41 door het studiebureau Tractebel Engineering nv?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van het aantal verkeersslachtoffers bij 6- tot 18-jarigen die de laatste vijf jaar in Limburg vielen tijdens de uren van de verplaatsingen donderdag, vrijdag; 12-12.59u woensdag)?</t>
+  </si>
+  <si>
+    <t>Gebeurde er een vergelijking met andere systemen? Zo ja, welke en wat is het resultaat?</t>
+  </si>
+  <si>
+    <t>Beschikt de minister over de voornaamste redenen van afwijzing?</t>
+  </si>
+  <si>
+    <t>Wat is de verhouding tussen het aantal ongevallen met SUV’s en het aantal ongevallen met andere personenwagens?</t>
+  </si>
+  <si>
+    <t>Wat is het slaagpercentage van leerlingen die hun diploma secundair onderwijs via de centrale examencommissie wensen te behalen?</t>
+  </si>
+  <si>
+    <t>Wat zal de minister doen om er voor te zorgen dat een Europees ambtenaar die zijn kind wil inschrijven in een kinderopvang van de Vlaamse Gemeenschap met inkomenstarief, de gepaste prijs betaalt op basis van zijn werkelijk nettoloon en werkelijke gezinssamenstelling?</t>
+  </si>
+  <si>
+    <t>Wat waren die sancties per voorziening?</t>
+  </si>
+  <si>
+    <t>Wat is de volledige kostprijs voor de aanpassingen die werden gedaan in de stelplaats Winterslag?</t>
   </si>
 </sst>
 </file>
@@ -3067,10 +3553,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B1001"/>
+  <dimension ref="A1:B1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M804" sqref="M804"/>
+    <sheetView tabSelected="1" topLeftCell="A1147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1002" sqref="B1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11087,6 +11573,1606 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1003" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1004" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1007" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1008" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1009" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1010" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1011" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1021" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1022" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1023" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1024" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1025" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1026" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1027" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1028" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1029" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1034" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1035" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1036" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1037" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1038" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1039" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1040" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1041" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1042" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1043" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1044" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="B1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1045" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1046" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1047" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1048" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1049" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="B1049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1050" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1051" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1052" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1054" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1055" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1056" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B1056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1058" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1059" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1061" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1062" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1064" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1065" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1066" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1067" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1068" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1069" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1070" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1071" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1072" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1073" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1074" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1075" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1077" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1078" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1079" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1080" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1081" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1082" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1083" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1084" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1085" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1086" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1087" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1088" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1089" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1090" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1091" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1092" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1093" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1094" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1095" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="B1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1096" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1098" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1100" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1101" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="B1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1102" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="B1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1103" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1104" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="B1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1106" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1109" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1110" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1112" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1113" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1114" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1118" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1121" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1124" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1125" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1126" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1127" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1128" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1130" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1131" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1132" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1133" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1134" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1137" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1138" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1139" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1140" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1141" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1142" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1143" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1144" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1145" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1146" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1147" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1148" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1149" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1150" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1151" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1152" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1153" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1154" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1155" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1156" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1157" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1158" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1159" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1160" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1161" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1162" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1163" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1164" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1165" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1166" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1167" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1168" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1169" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1170" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1171" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1172" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1173" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1174" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1175" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1176" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1177" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1178" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1179" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1180" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1181" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1182" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1183" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1184" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1185" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1186" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1187" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1188" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1189" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1190" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1191" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1192" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1193" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1194" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1195" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1196" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1197" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1198" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1199" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1200" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1201" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1201">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Identifier/labeled_questions.xlsx
+++ b/Identifier/labeled_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefva\Documents\Master\Thesis_s2\Code\Identifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A973B-4AFA-4952-8F58-EC1423B035ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D7FFF-29AF-4399-AECC-61879169CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1390">
   <si>
     <t xml:space="preserve">question </t>
   </si>
@@ -3681,6 +3681,528 @@
   </si>
   <si>
     <t>a) Als de paden niet van elkaar te onderscheiden zijn, graag een algemeen overzicht b) Wat betreft de mountainbikepaden, hoeveel kilometer staat geklasseerd als offroad?</t>
+  </si>
+  <si>
+    <t>Dus ik kan niet zeggen hoeveel meldingen door dierenartsen gedaan werden en evenmin het onderscheid maken tussen dierenverwaarlozing en dierenmishandeling in die meldingen.</t>
+  </si>
+  <si>
+    <t>Voor welk totaalbedrag?</t>
+  </si>
+  <si>
+    <t>In welke mate is fase 2 de totale uitrol van basisbereikbaarheid, zal dat 89% zijn in alle vervoerregio’s?</t>
+  </si>
+  <si>
+    <t>Kan meer informatie gegeven worden over de uitvoering en timing van die werken?</t>
+  </si>
+  <si>
+    <t>In onderstaande tabel kan u nalezen hoeveel personen met jongdementie -personen die een diagnose van dementie kregen voor de leeftijd van 65 jaar- in een woongelegenheid van een woonzorgcentrum met de bijkomende erkenning jongdementie, verbleven.</t>
+  </si>
+  <si>
+    <t>Heeft de minister zicht op de verdeling tussen mannen en vrouwen, de leeftijden, en de provincies waaruit de personen komen?</t>
+  </si>
+  <si>
+    <t>Waarop werd het besluit gebaseerd om 1 begeleider per 18 kinderen in te zetten?</t>
+  </si>
+  <si>
+    <t>Wat was de respons op de eerste campagne van maart 2023?</t>
+  </si>
+  <si>
+    <t>Vanaf/tot welke leeftijd kan dat?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de signaalgebieden die een bouwvrijopgave kregen, met daarbij de vermelding van de oppervlakte die ze hadden bij de goedkeuring van het vervolgtraject door de Vlaamse Regering en de oppervlakte die ze actueel hebben na voorlopige aanduiding door de Vlaamse Regering?</t>
+  </si>
+  <si>
+    <t>Wat was het doel van de besparingen en waar worden de bespaarde middelen nu voor ingezet?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van alle subsidies die Refu Interim sinds 2014 kreeg?</t>
+  </si>
+  <si>
+    <t>Wat was het studierendement in het hoger onderwijs voor het academiejaar 2022-2023?</t>
+  </si>
+  <si>
+    <t>Wat is het energiebesparende potentieel van alle schuilhuisjes van De Lijn?</t>
+  </si>
+  <si>
+    <t>b) Hoe werd de 1 miljoen euro voor digitalisering van jobbeurzen uiteindelijk besteed?</t>
+  </si>
+  <si>
+    <t>Wat is de impact van de hervorming van vastgoedtransacties op dat concrete project, kan ze de voortgang van het dossier bevorderen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de evolutie van de uitgaven voor individuele hulpverlening?</t>
+  </si>
+  <si>
+    <t>Welke projectsubsidies zijn er in de laatste 3 jaar toegekend aan initiatieven in het beleidsdomein van de minister, in het bijzonder in de gezinszorg en de thuiszorg?</t>
+  </si>
+  <si>
+    <t>Is het budget voldoende om de tramverbinding naar de Kioskplaats in Hoboken weer in dienst te nemen?</t>
+  </si>
+  <si>
+    <t>Daarbij vermeld (a) hoeveel elke maatregel kost, (b) of hij eenmalig, recurrent is of voor enkele jaren geldt (zo ja, welke jaren), (c) in welk jaar deze uitgave wordt begroot en besteed, (d) in welke begrotingspost deze maatregel is begroot, en (e) vanwaar de middelen komen om deze uitgave te realiseren (dus uit welke begrotingspost, met code + naam).</t>
+  </si>
+  <si>
+    <t>Aangezien zowel de verbintenistermijn als de uitvoeringstermijn is afgelopen, wat is de stand van zaken van het bestek met drie opdrachten?</t>
+  </si>
+  <si>
+    <t>De onderstaande tabel geeft weer hoeveel van de bovenstaande aanvragen werden goedgekeurd door de bijzondere bijstandscommissie.</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de totale schuld van de gemeenten?</t>
+  </si>
+  <si>
+    <t>a) Zal er inderdaad in bijkomend budget voorzien worden?</t>
+  </si>
+  <si>
+    <t>b) Welke taak en welk financieel aandeel heeft VDAB daarbij op zich genomen?</t>
+  </si>
+  <si>
+    <t>Met betrekking tot de begroting:a) Zijn die middelen al opgenomen in de begroting?</t>
+  </si>
+  <si>
+    <t>Over welke projecten gaat het precies, wat is/was de looptijd per project, welk budget werd per project vrijgemaakt, en wat zijn/waren de doelstellingen?</t>
+  </si>
+  <si>
+    <t>Wat is de timing voor de site in Rekkem?</t>
+  </si>
+  <si>
+    <t>a) Op hoeveel informatie-events van scholen (infodagen, opendeurdagen, ..</t>
+  </si>
+  <si>
+    <t>Beschikt de minister over een inschatting over het percentage dat effectief in aanmerking komt of interesse heeft om ook echt de stap te zetten?</t>
+  </si>
+  <si>
+    <t>Bij hoeveel en bij welke van die locaties gaf Opgroeien de opdracht tot het uitvoeren 10.</t>
+  </si>
+  <si>
+    <t>Hoe lang moeten we nog wachten op het advies van de Raad van State?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de evolutie van de werkingsinkomsten van de lokale besturen (verhuur van sportcentra, dagprijzen van woonzorgcentra ...)?</t>
+  </si>
+  <si>
+    <t>Over welke steunbedragen gaat het?</t>
+  </si>
+  <si>
+    <t>Wat is de timing voor die werken?</t>
+  </si>
+  <si>
+    <t>Wanneer zal hij in de toekomst nog samenkomen?</t>
+  </si>
+  <si>
+    <t>Is het enkel de frequentie van de overstorten of ook de duurtijd, het debiet, de waterkwaliteit,…?</t>
+  </si>
+  <si>
+    <t>Wat is de evolutie van de geblokkeerde EAN-nummers de afgelopen tien jaar?</t>
+  </si>
+  <si>
+    <t>Wat zijn de verdere timing en verloop van het dossier?</t>
+  </si>
+  <si>
+    <t>na x jaar van de investering), en zo de schuld kan worden afgebouwd?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de evolutie van de exploitatie-uitgaven aan onderstaande rubrieken?</t>
+  </si>
+  <si>
+    <t>Kan de minister ook een overzicht in euro bezorgen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht bezorgen van wanneer die werkgroep in 2023 samenkwam?</t>
+  </si>
+  <si>
+    <t>vezel uit riet, vezel uit bermmaaisel, ...) per toepassing een aparte grondstoffenverklaring moet in orde brengen?</t>
+  </si>
+  <si>
+    <t>Wat is de huidige status van het implementatieproces van de geschillencommissie?</t>
+  </si>
+  <si>
+    <t>In welke modaliteiten werd voorzien in het raamcontract om wissels te onderhouden en te herstellen?</t>
+  </si>
+  <si>
+    <t>Wat is het ecologische potentieel van alle schuilhuisjes van De Lijn?</t>
+  </si>
+  <si>
+    <t>Ziet de minister een daling of een stijging in het aantal goedgekeurde subsidiedossiers?</t>
+  </si>
+  <si>
+    <t>Heeft de minister al meer zicht op wanneer het project volledig afgerond zal zijn?</t>
+  </si>
+  <si>
+    <t>Kan de minister inzicht geven in de hoeveelheid regenwater die uit het rioleringsnet gehouden moet worden om de huidige normen en aantallen (F7) van overstort niet te overstijgen?</t>
+  </si>
+  <si>
+    <t>Wordt er tegen fase 2 een nieuwe levering bussen verwacht? Zo ja, welk type en wanneer?</t>
+  </si>
+  <si>
+    <t>Als een jongere de overstap van minder- naar meerderjarigheid maakt en over een persoonsvolgend convenant beschikt, zal die dan automatisch worden omgezet in een persoonsvolgend budget? Zo ja, op welke manier wordt de budgethoogte van het persoonsvolgend budget berekend?</t>
+  </si>
+  <si>
+    <t>100% van de studiepunten?</t>
+  </si>
+  <si>
+    <t>Wat is het verschil tussen een melding en een klacht?</t>
+  </si>
+  <si>
+    <t>Welke ritten en haltes worden aangepast of afgeschaft vanaf januari 2024?</t>
+  </si>
+  <si>
+    <t>Wat is de verdere timing voor de onteigeningen?</t>
+  </si>
+  <si>
+    <t>Kan meer duiding gegeven worden over de verdere vermindering van de dienstverlening op dat traject?</t>
+  </si>
+  <si>
+    <t>Wanneer wordt de groep gecontacteerd die bezwaar indiende na de weigering?</t>
+  </si>
+  <si>
+    <t>Zo niet, wanneer zal het afgerond zijn?</t>
+  </si>
+  <si>
+    <t>Is er al een berekening gemaakt van de kostprijs van beide alternatieven? Zo ja, wat kan eruit besloten worden?</t>
+  </si>
+  <si>
+    <t>Wanneer zal de geschillencommissie operationeel zijn?</t>
+  </si>
+  <si>
+    <t>Zo niet, wanneer kunnen de resultaten verwacht worden?</t>
+  </si>
+  <si>
+    <t>Wanneer zal de fietsverbinding gerealiseerd zijn?</t>
+  </si>
+  <si>
+    <t>Heeft de minister al meer zicht op de verdere timing voor de nog te nemen stappen?</t>
+  </si>
+  <si>
+    <t>Is dat in overeenstemming met de reële kostprijs?</t>
+  </si>
+  <si>
+    <t>Wat is de kostprijs van de uitvoering van het bestek en door wie werd de opdracht betaald? Graag een overzicht van de gemaakte kosten en van wie welke kosten heeft betaald.</t>
+  </si>
+  <si>
+    <t>Hoelang zal de hinder nog duren?</t>
+  </si>
+  <si>
+    <t>Zijn de vooropgestelde plannen nog haalbaar gezien de inflatie en de gestegen bouwkosten?</t>
+  </si>
+  <si>
+    <t>Zijn er voor deze regeerperiode al processen-verbaal opgemaakt tegen eventueel zonevreemd gesitueerde dierenasielen?</t>
+  </si>
+  <si>
+    <t>Hoe scoren de verschillende provincies volgens de minister in hun aanbod aan plaatsen per 100 kinderen?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen de werken afgerond zijn?</t>
+  </si>
+  <si>
+    <t>Zijn er extra onkosten die worden ingebracht, bijvoorbeeld voor telefoon of wifi bij thuiswerk, en gaat de verantwoording eraan vooraf?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op het terrein van het project van de Profploeg en andere initiatieven?</t>
+  </si>
+  <si>
+    <t>Wanneer zal de omgevingsvergunning worden aangevraagd?</t>
+  </si>
+  <si>
+    <t>De onderstaande tabel geeft weer hoeveel aanvragen voor een verhoogde tegemoetkoming werden goedgekeurd door de bijzondere bijstandscommissie.</t>
+  </si>
+  <si>
+    <t>a) Merkt de minister een evolutie in het aantal of de soort ingediende aanvragen en projecten?</t>
+  </si>
+  <si>
+    <t>Welke zijn nog gepland in 2023?</t>
+  </si>
+  <si>
+    <t>Zo niet, wanneer zal het masterplan dan klaar zijn?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de buslijnen in de regio Antwerpen voor de eerste fase van de uitrol basisbereikbaarheid op 1 juli 2023?</t>
+  </si>
+  <si>
+    <t>Hoe werd de kostprijs per kind berekend?</t>
+  </si>
+  <si>
+    <t>Zal de minister deze projectoproep herhalen? Zo ja, wanneer?</t>
+  </si>
+  <si>
+    <t>Tellen zijinstromers (personen die dus nog in opleiding zijn) mee in de berekening van de ratio per begeleider?</t>
+  </si>
+  <si>
+    <t>Wat is de verdere timing en het verloop van het dossier?</t>
+  </si>
+  <si>
+    <t>Hoe oud zijn deze kinderen?</t>
+  </si>
+  <si>
+    <t>Wanneer wordt de groep gecontacteerd die hun aanvraag na weigering wijzigde (bijvoorbeeld door de verkeerde interpretatie op de 75% IKT-norm) (IKT:inkomenstarief)?</t>
+  </si>
+  <si>
+    <t>Wanneer werd dat beslist, door wie en om welke reden?</t>
+  </si>
+  <si>
+    <t>Zal dat budget alsnog vrijgemaakt worden?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen de werken voltooid zijn?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister hen?</t>
+  </si>
+  <si>
+    <t>a) Welke (fiscale) mogelijkheden zijn er om het wegvallen van de fiscale vrijstelling het secundair onderwijs, op te vangen?</t>
+  </si>
+  <si>
+    <t>Ziet de minister een daling of een stijging in het aantal aanvragen ten opzichte van vorige projectoproepen?</t>
+  </si>
+  <si>
+    <t>Hoe groot kan het effect zijn van een dergelijk mosselrif of, met andere woorden, welke impact kan dit hebben op het nu uitgestippelde beleid van de kustverdediging?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen ze voltooid zijn?</t>
+  </si>
+  <si>
+    <t>de controle op de toegekende coronasteun?</t>
+  </si>
+  <si>
+    <t>Zullen de reguliere huurders die hun woning door het kraken en de vernielingen niet op de vooropgestelde datum kunnen betrekken, worden vergoed? Zo ja, door wie/welke instantie?</t>
+  </si>
+  <si>
+    <t>Wat zijn de grote lijnen van het masterplan en wat is de totale mogelijke opbrengst?</t>
+  </si>
+  <si>
+    <t>Welke verwervingen, waarvoor in het ontwerp-GIP in totaal 504.000 euro is gereserveerd, zijn gepland in 2024?</t>
+  </si>
+  <si>
+    <t>b) Wat is de duurtijd van elke stap in het proces?</t>
+  </si>
+  <si>
+    <t>Wat is ondertussen de timing voor de realisatie van de oostelijke tangent?</t>
+  </si>
+  <si>
+    <t>Welke verwervingen zijn tot nog toe gerealiseerd in 2023?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister die situatie?</t>
+  </si>
+  <si>
+    <t>Onderzoekt de minister of werkt hij aan oplossingen om hiertoe eventueel vanuit de Vlaamse overheid tussenbeide te komen onder de vorm van bijvoorbeeld extra subsidies of verloningsmogelijkheden, los van eigen schoolmiddelen? Zo ja, wat is het plan van aanpak, de timing en het budget?</t>
+  </si>
+  <si>
+    <t>Kan er een detail gegeven worden van het onderwerp van het project en dat per gesubsidieerde organisatie, met een onderscheid tussen private actoren met een non-profitkarakter, private actoren met een profitkarakter en publieke actoren?</t>
+  </si>
+  <si>
+    <t>Wanneer kunnen we daar een oplossing verwachten?</t>
+  </si>
+  <si>
+    <t>Kan de minister die bezorgen?</t>
+  </si>
+  <si>
+    <t>Zijn de coachingtrajecten vastgelegd of is dat verschillend per traject?</t>
+  </si>
+  <si>
+    <t>Welke fiscale en/of financiële mogelijkheden ziet de minister om een gelijkschakeling met leraren met bekwaamheidsattest te bewerkstelligen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van personeelsleden in het onderwijs die met een bachelordiploma gestart zijn en gaandeweg een master hebben behaald en zo betaald worden?</t>
+  </si>
+  <si>
+    <t>Wat zijn de concrete cijfers?</t>
+  </si>
+  <si>
+    <t>Wat is de timing en planning voor de verdere opvolging van het Masterplan Vaste Activa?</t>
+  </si>
+  <si>
+    <t>Wie dat wenst krijgt ook een laptophouder, toetsenbord en rugzak ter beschikking.</t>
+  </si>
+  <si>
+    <t>Wat is het gereserveerde budget?</t>
+  </si>
+  <si>
+    <t>c) Wat is de oplevertermijn?</t>
+  </si>
+  <si>
+    <t>Wat is de verwachte datum van toekenning van de subsidie?</t>
+  </si>
+  <si>
+    <t>Wanneer zijn de opdrachten opgestart, wie heeft de opdrachten uitgevoerd, wat zijn de resultaten van de opdrachten?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister deze projectoproep?</t>
+  </si>
+  <si>
+    <t>III.Wat is de vooropgestelde timing?</t>
+  </si>
+  <si>
+    <t>Graag de cijfers over wie wel en niet een plek heeft kunnen krijgen per maand, met gevraagde opsplitsing.</t>
+  </si>
+  <si>
+    <t>Kan de minister de precieze plannen van de heraanleg bezorgen?</t>
+  </si>
+  <si>
+    <t>In welke mate is de aanwezigheid van de kleuter gedurende het schooljaar de grootste bepalingsfactor om een jaar langer in het kleuteronderwijs te blijven?</t>
+  </si>
+  <si>
+    <t>Wat is het maximaal aantal keren dat een budgethouder werd gecontroleerd?</t>
+  </si>
+  <si>
+    <t>Gaat in 2024 deze besparing verdergezet worden?</t>
+  </si>
+  <si>
+    <t>Wat is de verhouding tussen het aantal laadpalen dat op dit moment in gebruik is en het aantal plaatsingsopdrachten dat gegeven werd?</t>
+  </si>
+  <si>
+    <t>Heeft de minister er zicht op in hoeverre er in Vlaanderen zonevreemde dierenasielen zijn?</t>
+  </si>
+  <si>
+    <t>Welke bedragen zijn sinds 2019 jaarlijks al verworven door VLAM via het innen van verplichte bijdragen aan de promotiefondsen?</t>
+  </si>
+  <si>
+    <t>Een overzicht van de gevoerde acties per sector is te vinden in de activiteitenverslagen van VLAM: www.vlaanderen.be/vlam/wie-zijn-we/activiteitenverslagen.</t>
+  </si>
+  <si>
+    <t>Wat is het totaalbudget dat besteed werd aan de subsidie?</t>
+  </si>
+  <si>
+    <t>Wat is de top 10 van de meest voorkomende onderwerpen?</t>
+  </si>
+  <si>
+    <t>Wat was de gemiddelde wachttijd tussen de aanvraag en het uiteindelijke besluit van de bijzondere bijstandscommissie in 2020, in 2021, in 2022 en in 2023?</t>
+  </si>
+  <si>
+    <t>Zijn er verschillen in aanpak tussen de verschillende koepels?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van de gebruikscijfers van de pendelbus die gepland is op het traject Kioskplaats-Zwaantjes?</t>
+  </si>
+  <si>
+    <t>Kan de minister een nauwkeurige omschrijving geven van de uit te voeren werken voor de heraanleg van het knooppunt van de N424 met de N456, voor de eerste fase?</t>
+  </si>
+  <si>
+    <t>Wat is de gemiddelde doorlooptijd van die procedure?</t>
+  </si>
+  <si>
+    <t>Is de minister tevreden over het aantal aanvragen en de ingediende projecten sinds de inwerkingtreding van het nieuwe subsidiereglement ‘sectorale prioriteiten’?</t>
+  </si>
+  <si>
+    <t>Heeft de minister zicht op het totale aantal potentiële doctoraathouders, doctorandi en andere onderzoekers die op dit ogenblik aan een universiteit werken en dus in aanmerking komen voor deze stap of combinatie?</t>
+  </si>
+  <si>
+    <t>b) Welke jobbeurzen werden in samenwerking met de lokale besturen georganiseerd?</t>
+  </si>
+  <si>
+    <t>Wat is sinds de invoering van de bijzondere erkenning de gemiddelde verblijfsduur voor personen die lijden aan jongdementie die worden opgevangen in woongelegenheden met die bijzondere erkenning?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van het aantal goedgekeurde subsidiedossiers met bijhorende budgetten?</t>
+  </si>
+  <si>
+    <t>b) Ziet de minister hier groeikansen voor de toekomst?</t>
+  </si>
+  <si>
+    <t>Hoeveel vervoerregio’s zitten boven hun budget en zullen dus aanpassingen moeten doen? Graag een overzicht per regio, hun budget en hoeveel ze over budget zijn gegaan.</t>
+  </si>
+  <si>
+    <t>Wat is de gemiddelde wachttijd tussen de aanvraag en het uiteindelijke besluit van de bijzondere bijstandscommissie in 2020, in 2021, in 2022 en in 2023?</t>
+  </si>
+  <si>
+    <t>Welke subsidies werden tijdens deze legislatuur jaarlijks aan de Pro League gegeven?</t>
+  </si>
+  <si>
+    <t>Kan een gedetailleerd overzicht gegeven worden van het aantal schuilhuisjes per vervoerregio, het aantal nieuwe schuilhuisjes met groendak en/of zonnepaneel en hun locatie, en de geplande plaatsing van dergelijke schuilhuisjes met groendak en/of zonnepaneel en hun locatie?</t>
+  </si>
+  <si>
+    <t>Welke participatie er is geweest met de buurtbewoners?</t>
+  </si>
+  <si>
+    <t>Wordt voorzien?CPE - toelichting (goed-gekeurde onderdelen)CPE - getal (goedgekeurde onderdelen)1 GLS € 30.000,00 3 x 150kW 302 Econor € 45.000,00 5 x 11kW 2  x300kW453 Luiknatie € 25.000,00 5 x 80kW 254 Besix € 40.000,00 4 x 150kW 405 Dhaese € 18.000,00 1 x 300kW 206 MAN W-VL € 13.505,50 1 x 300kW207Transport Theo bvba€ 40.000,00 2 x 300kW 408Haven van Antwerpen€ 300.000,00 15 x 300kW 30010Roeselare stad - stedelijke logistiek€ 8.000,00 4 x 22kW 811Touringcarbedrijf De Wilg BVBA€ 75.000,00 15 x 60kW 7512 Man Brugge NV € 1.400,00 2 x 22kW 414Maenhout Automotive€ 17.707,00 6 x 22kW 1 x 250 kW2215 LTI-SKOBO € 1.842,00 3 x 22kW 616 WDP € 46.589,00 17 x 22kW 6 x 50kW 2 x 150kW8418 Kaliber € 4.000,00 2 x 22kW 419Hamann International Logistics NV€ 80.000,00 4 x 360kW 8020 Aerts Truck € 30.000,00 4 x 22 kW 6 x 22kW 1 x 180 kW3021Bpost Antwerpen Centrum€ 52.000,00 26 x 22kW 5222Aartselaar - Bpost€ 57.000,00 70 x 22kW 14023 Deurne - Bpost € 28.846,00 29 x 22kW 5824 Kortrijk - Bpost € 31.535,00 31 x 22kW 6225Linkeroever - Bpost€ 10.113,00 8 x 22kW 1626Merksem - Bpost€ 18.734,00 12 x 22kW 2427Oostkamp - Bpost€ 42.175,00 39 x 22kW 7828Roeselare - Bpost€ 37.510,00 40 x 22kW 8029 Veurne - Bpost € 55.000,00 50 x 22kW 10030 Storex € 41.996,80 1 x 150kW 2 x 300kW5031 Horafrost € 12.000,00 6 x 22kW 1232 Homifreez € 8.000,00 4 x 22kW 833 Ghistelinck € 60.000,00 10 x 22kW 2 x 60 kW 3 x 150 kW6034EG Retail Belgium€ 40.000,00 2 x 150 kW 2 x 150kW4035 Lavrijsen € 24.000,00 1 x 40 kW 1 x 360 kW2436 Derma Trucks € 16.000,00 3 x 22kW 1x 180 kW1637 Weba Gent € 34.000,00 12 x 22kW 1 x 200 kW3439Snellaadinfrastructuur G&amp;V Trucknetwerk -1€ 300.000,00 15 x 400kW 30040Snellaadinfrastructuur G&amp;V Trucknetwerk -2€ 300.000,00 15 x 400 kW 30041Snellaadinfrastructuur G&amp;V Trucknetwerk -3€ 80.000,00 4 x 400 kW 8043 CRM connect € 105.000,00 5 x 60kW 8 x 150kW10544International Car Operators€ 15.500,00 2 x 150 kW 2045Dedecker Vanriet€ 160.000,00 8 x 150kW 4 x 150 kW 4 x 150 kW16046Transport Vervaeke€ 20.000,00 1 x 320 kW 2047 WDP - ABInbev € 40.000,00 4 x 150 kW 4048WDP - Barry Callebaut€ 20.000,00 1 x 350 kW 2049WDP - Big Foot Fast Charging€ 40.000,00 2 x 350 kW 4050DAF - Herent &amp; Houthalen€ 10.000,00 2 x 90 kW 1051Lemahieu Oostende€ 28.000,00 4 x 80 kW 4 x 22 kW2852 Lemahieu Gent € 34.000,00 2 x 22 kW 6 x 80 kW3453 GZA € 10.000,00 5 x 22 kW 1054 Daimler Truck € 35.000,00 1 x 300 kW 1 x 150 kW 1 x 50 kW3555 Biostoom € 30.000,00 2 x 50 kW 2 x 180 kW3056Turbotrucks Kortrijk€ 25.511,00 8 x 22 kW 2 x 200 kW3657 Heylen - Rikesa € 4,00 24 x 50 kW 12058Heylen - Rikesa - 2€ 52.000,00 26 x 22 kW 5259 Essers € 20.000,00 4 x 50 kW 2060Tailormade Transport€ 25.000,00 5 x 80 kW 2561 Finvesta € 173.000,00 24 x 22 kW 5 x 80 kW 10 x 200 kW 17362 Immo Darwin € 196.000,00 22 x 22kW 5 x 80 kW 10 x 200 kW16963 Immo Palmaers € 40.000,00 2 x 300 kW 4064Tailormade logistics€ 25.000,00 5 x 80 kW 2565Tailormade logistics Westerlo€ 25.000,00 5 x 80 kW 2566Immo Darwin Rijkevorsel€ 185.000,00 30 x 22 kW 5 x 80 kW 10 x 200 kW18567Alders Internationaal Transport€ 40.000,00 2 x 150 kW 1 x 300 kW4068 Marcel Depaire € 40.000,00 2 x 300 kW 4069 IKEA - Allego € 255.000,00 75 x 22kW 5  x50kW 10 x 150kW27570Colruyt - Londerzeel€ 24.368,00 10 x 22kW 1 x 60kW2571 Raff Plastics € 14.000,00 1 x 43 kW 1 x 180 kW1472Colruyt - zware vracht€ 230.000,00 7 x 350kW 9 x 180 kW23073Colruyt - centrale diensten bestelwagens€ 26.000,00 13 x 32 kW 2674Colruyt - centrale diensten bestelwagens 2€ 12.000,00 6 x 32 kW 1275Colruyt - publiek HD laadinfra centrale diensten€ 300.000,00 17 x 350 kW 34076 Eutraco € 80.000,00 4 x 400 kW 8077 Devrago € 46.000,00 13 x 22 kW 2 x 80 kW 1 x 200 kW4678 DVM Invest € 44.000,00 2 x 22 kW 2 x 300 kW4479Fastned - Brecht Oost€ 20.000,00 1 x 400 kW 2080Fastned - Peutie Oost€ 20.000,00 1 x 400 kW 2081Fastned - Peutie West€ 20.000,00 1 x 400 kW 2082Fastned - Postel Noord€ 40.000,00 2 x 400kW 4083Fastned - Postel Zuid€ 40.000,00 2 x 400kW 4084Fastned - Walshoutem Noord€ 40.000,00 2 x 400kW 4085Transport Heirwegh€ 10.000,00 2 x 50 kW 1087Mandel Car Toerisme€ 70.000,00 5 x 300 kW 10088 Ganda Cars € 58.000,00 5 x 300 kW 4 x 22 kW10889Ninatrans Electrified€ 4.000,00 1 x 43kW 490Volvo Trucks Ruisbroek€ 46.000,00 4 x 150 kW 3 x 22 kW4691 Multiobus Diest € 30.000,00 6 x 60 kW 3092Multiobus Wijgmaal€ 30.000,00 6 x 60 kW 3095 Charge m Up € 80.000,00 2 x 150 kW 6 x 300 kW20096 Ferry Cars € 200.000,00 14 x 150 kW 12 x 50 kW20098Multiobus Wijgmaal 2€ 20.000,00 1 x 300 kW 2099Antwerp Stevedoring€ 16.000,00 4 x 43 kW 16100Transuniverse forwarding€ 50.000,00 20 x 22 kW 1 x 150 kW50101 Post NL € 17.727,00 20 x 22 kW 2 x 22 kW44102 Verbeketrans € 20.000,00 1 x 300 kW 20103Transport Mervielde€ 15.000,00 1 x 80 kW 1 x 200 kW15105Allego - Heavy Duty Antwerp Euroterminal€ 60.000,00 3 x 400 kW 60106Echarging4busses@Trosbeiaard€ 143.000,00 14 x 150 kW 3 x 11 kW143107DFDS Gent Green Port€ 40.000,00 2 x 300 kW 40108Rijschool Hendriks€ 14.000,00 2 x 22 kW 1 x 150 kW14109 Waaslandia € 210.000,00 21 x 150 210110 Keolis Genk € 130.000,00 13 x 150 130111 Keolis Jabbeke € 60.000,00 6 x 150 60112 Keolis Maaseik € 60.000,00 6 x 150 60113Keolis Tessenderlo€ 40.000,00 4 x 150 40114Keolis Wuustwezel€ 40.000,00 4 x 150 40115 Keolis Zulte € 60.000,00 6 x 150 60116 Teyssen € 65.000,00 13 x 50 65117De Morgenstond€ 135.000,00 27 x 50 135118 Buga NV € 49.000,00 5 x 221x 501 x 3001 x 60049119Buga Limburg NV€ 29.000,00 1 x 300 kW 2 x 22kW 1 x 50 kW294.</t>
+  </si>
+  <si>
+    <t>M.a.w., wat is het percentage verworven studiepunten ten opzichte van het aantal opgenomen studiepunten?</t>
+  </si>
+  <si>
+    <t>Wat was in 2020, in 2021, in 2022 en in 2023 de gemiddelde wachttijd tussen de aanmelding en het eerste bezoek in een neutrale bezoekruimte?</t>
+  </si>
+  <si>
+    <t>Kan de minister de meest recente stand van zaken geven?</t>
+  </si>
+  <si>
+    <t>d) Hoelang moeten mensen gemiddeld wachten voor ze een assistentiehond toegewezen krijgen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende fases van de uit te voeren werken voor de aanleg van de fietsverbinding campus Sterre-Ardoye, met per fase een omschrijving van de werken, de timing en het budget?</t>
+  </si>
+  <si>
+    <t>Hoe groot is de wachtlijst van personen die een assistentiehond willen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende fases van de werken voor de vervanging van de brug Deinsesteenweg, met per fase een omschrijving van de werken, de timing en het gereserveerde budget?</t>
+  </si>
+  <si>
+    <t>a) Wat is de kostprijs per kabinet opgesplitst voor personeel, externe adviseurs, onkosten van de minister, telefoonkosten, dienstwagens, chauffeur, persoonlijke kok?</t>
+  </si>
+  <si>
+    <t>Wat is de totale kostprijs van de heraanleg?</t>
+  </si>
+  <si>
+    <t>a) Acht de minister het vooropgestelde budget voor die subsidie voldoende?</t>
+  </si>
+  <si>
+    <t>Hoe loopt dat?</t>
+  </si>
+  <si>
+    <t>Kan de minister per signaalgebied een overzicht geven van het aantal afgeleverde omgevingsvergunningen voor stedenbouwkundige handelingen waarbij toelating gegeven werd voor bebouwing, ophoging of andere ingrepen die een impact hebben op het bergingsvolume van het signaalgebied?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister dat per provincie?</t>
+  </si>
+  <si>
+    <t>c) het totale bedrag dat al besteed werd aan alle verleden aktes en akkoorden?</t>
+  </si>
+  <si>
+    <t>Kan de minister de correcte cijfers geven op datum van 1 oktober 2023 aangaande:a) het aantal percelen waarvoor de voorbije jaren een akkoord werd bereikt en waarvoor ook al een akte werd verleden?</t>
+  </si>
+  <si>
+    <t>Wat zijn de resultaten bij de gemeenten waar het project van de Profploeg werd afgerond?</t>
+  </si>
+  <si>
+    <t>Wat is de uiteindelijke timing van de toekenning van de 5176 extra plaatsen inkomenstarief?</t>
+  </si>
+  <si>
+    <t>Kan een stand van zaken gegeven worden over de noodzakelijke werken aan de spoorinfrastructuur op de Antwerpsesteenweg?</t>
+  </si>
+  <si>
+    <t>c) Wat bepaalt de volgorde op de wachtlijst?</t>
+  </si>
+  <si>
+    <t>Welke West-Vlaamse projecten zitten nog in de pijplijn voor subsidies voor het jaar 2023?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de evolutie van de autofinancieringsmarges (AFM) en de gecorrigeerde autofinancieringsmarges?</t>
+  </si>
+  <si>
+    <t>Kan de minister de correcte cijfers geven op datum van 31 december 2022, 31 december 2021, 31 december 2020 en 31 december 2019 aangaande:a) het aantal ingenomen percelen waarvoor de aktes al zijn verleden;b) het aantal in te nemen percelen waarvoor er wel een akkoord is, maar waarvoor de aktes nog niet zijn verleden?</t>
+  </si>
+  <si>
+    <t>Welk bedrag wordt daarvoor extra vrijgemaakt?</t>
+  </si>
+  <si>
+    <t>Acht de minister het budget voldoende?</t>
+  </si>
+  <si>
+    <t>Wat was de gemiddelde doorlooptijd van de gehele erkenningsprocedure voor assistentiehondenscholen in 2019-2020-2021-2022-2023?</t>
+  </si>
+  <si>
+    <t>Welke aansluiting op de N60 en de R40-binnenring is opgenomen in de goedgekeurde projectnota?</t>
+  </si>
+  <si>
+    <t>Hoe loopt de vooruitgang met betrekking tot de nodige onteigeningen en verloopt die ondertussen wel op de verhoopte kruissnelheid?</t>
+  </si>
+  <si>
+    <t>86 van 21 oktober 2021 en in latere vragen, ziet de minister concreet en welke stappen zijn daartoe al (succesvol) gezet?</t>
+  </si>
+  <si>
+    <t>Kan de minister voor zijn/haar kabinet voor de vragen hieronder een update geven met de meest recente gegevens tot op heden?</t>
   </si>
 </sst>
 </file>
@@ -4054,10 +4576,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B1401"/>
+  <dimension ref="A1:B1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1202" sqref="A1202:B1401"/>
+    <sheetView tabSelected="1" topLeftCell="A1402" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1406" sqref="A1406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15274,6 +15796,1606 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1402" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1402" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1403" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1404" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1405" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1406" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1407" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1408" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1409" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1410" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1411" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1412" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1413" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1414" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1415" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1416" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1417" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1418" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1419" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1420" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1421" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1422" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1423" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1424" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1425" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1426" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1427" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1428" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1429" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1430" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1431" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1432" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1433" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1434" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1435" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1436" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1437" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1438" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1439" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1440" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1441" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1442" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1443" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1444" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1445" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1446" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1447" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1448" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1449" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1450" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1451" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1452" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1453" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1454" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1455" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1456" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1457" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1458" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1459" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1460" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1461" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1462" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1463" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1464" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1465" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1466" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1467" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1468" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1469" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1470" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1471" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1472" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1473" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1474" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1475" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1476" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1477" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1478" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1479" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1480" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1481" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1482" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1483" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1484" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1485" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1486" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1487" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1488" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1489" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1490" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1491" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1492" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1493" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1494" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1495" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1496" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1497" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1498" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1499" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1500" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1501" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1502" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1503" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1504" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1505" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1506" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1507" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1508" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1509" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1510" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1511" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1512" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1513" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1514" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1515" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1516" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1517" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1518" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1519" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1520" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1521" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1522" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1523" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1524" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1525" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1526" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1527" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1528" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1529" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1530" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1531" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1532" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1533" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1534" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1535" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1536" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1537" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1538" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1539" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1540" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1541" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1542" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1543" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1544" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1545" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1546" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1547" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1548" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1549" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1550" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1551" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1552" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1553" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1554" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1555" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1556" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1557" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1558" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1559" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1560" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1561" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1562" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1563" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1564" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1565" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1566" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1567" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1568" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1569" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1570" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1571" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1572" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1573" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1574" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1575" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1576" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1577" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1578" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1579" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1580" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1581" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1582" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1583" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1584" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1585" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1586" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1587" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1588" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1589" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1590" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1591" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1592" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1593" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1594" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1595" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1596" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1597" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1598" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1599" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1600" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1601" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1601">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Identifier/labeled_questions.xlsx
+++ b/Identifier/labeled_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefva\Documents\Master\Thesis_s2\Code\Identifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B188BEDE-F1AB-4ECD-B148-ACF1D01E6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8F8F5-824B-4A1C-8820-25EF7D55C1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1687">
   <si>
     <t xml:space="preserve">question </t>
   </si>
@@ -4692,6 +4692,408 @@
   </si>
   <si>
     <t>f) Wanneer zullen die haltes toegankelijk gemaakt worden voor iedereen, dus voor elke toegankelijkheidsstatus?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Kallosluis?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht worden gegeven van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Royerssluis?</t>
+  </si>
+  <si>
+    <t>Ziet de minister bij de in deelvragen 7-8 bedoelde trajectstarters, positieve of negatieve evoluties?</t>
+  </si>
+  <si>
+    <t>Kwamen vanuit de lokale besturen al meldingen van een verhoogde spanning/meer problemen sinds de terroristische massaslachting van Hamas op 7 oktober 2023?</t>
+  </si>
+  <si>
+    <t>Ziet de minister een opvallende evolutie? Zo ja, hoe verklaart hij die?</t>
+  </si>
+  <si>
+    <t>Wat is de planning tot de effectieve werken in dat scenario?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Berendrecht- en Zandvlietsluis?</t>
+  </si>
+  <si>
+    <t>b) Welk geluidsniveau is voor de minister aanvaardbaar?</t>
+  </si>
+  <si>
+    <t>Wanneer hebben DVW en de diensten van de minister contact opgenomen met het Brugse stadsbestuur?</t>
+  </si>
+  <si>
+    <t>Welke investeringen in het ontwerp GIP 2024 worden specifiek gereserveerd om het goederenvervoer van de weg naar het spoor te doen evolueren?</t>
+  </si>
+  <si>
+    <t>Wanneer denkt de minister de eerste resultaten te krijgen van de verscherpte taalmaatregel, namelijk dat sociale huurders nu bijna één jaar aan taalniveau A2 moeten voldoen?</t>
+  </si>
+  <si>
+    <t>Is er een streefdoel om tegen een bepaald jaar een bepaald percentage van kruispunten toegankelijk te maken? Zo ja, welk streefdoel is dat?</t>
+  </si>
+  <si>
+    <t>Wat is voor de plas Hazewinkel de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
+  </si>
+  <si>
+    <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2005-2006, 2006-2007, 2007-2008, 2008-2009, 2009-2010, 2010-2011; 2011-2012, 2012-2013, 2013-2014, 2014-2015, 2015-2016, 2016-2017, 2017-2018, 2018-2019, 2019-2020, 2020-2021, 2021-2022 en 2022-2023 voor de opleiding diergeneeskunde?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht gegeven worden van alle steunaanvragen van de afgelopen jaren die de Vlaamse overheid heeft ontvangen voor de Brexit Adjustment Reserve (BAR) nu de aanvragen afgerond zijn?</t>
+  </si>
+  <si>
+    <t>Welke gebouwen heeft De Lijn in eigendom die niet meer in gebruik zijn en sinds wanneer zijn die niet meer in gebruik?</t>
+  </si>
+  <si>
+    <t>Heeft de minister een beeld van de intensiteit van de studies bij de oudere studenten?</t>
+  </si>
+  <si>
+    <t>In het ontwerp GIP 2024 wordt onder nummer GIP003510/01: “Kallosluis” een budget Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zal worden?</t>
+  </si>
+  <si>
+    <t>Wanneer vond het laatste overleg plaats met het gemeentebestuur van Beernem?</t>
+  </si>
+  <si>
+    <t>e) Wat is volgens de minister het effect van de verplichte starttoets op het aantal inschrijvingen in vergelijking met de laatste drie academiejaren voor de invoering?</t>
+  </si>
+  <si>
+    <t>Wat is de verdere timing van de onteigeningen?</t>
+  </si>
+  <si>
+    <t>Welke opdrachten en vergoedingen vallen er onder?</t>
+  </si>
+  <si>
+    <t>Ziet de minister een evolutie in vergelijking met dezelfde gegevens van vorig jaar? Zo ja, hoe verklaart hij die?</t>
+  </si>
+  <si>
+    <t>Hoe hoog is de nood tot extra ondersteuning voor onze Vlaamse bedrijven volgens de minister?</t>
+  </si>
+  <si>
+    <t>Is het budget op het ontwerp GIP 2024 voorzien voor hetzelfde project, of is dit een nieuwe investering?</t>
+  </si>
+  <si>
+    <t>b) Naar welke landen ging het leeuwendeel van dat geld?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht worden gegeven van alle investeringen die door de Vlaamse overheid deze legislatuur werden uitgevoerd binnen de infrastructuur van de Boudewijn- en Van Cauwelaertsluis?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht gegeven worden voor welke concrete investeringen of cofinancieringen dit budget gebruikt zal worden?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende fases van de werken voor de herbouw van de Meulestedebrug, met per fase een omschrijving van de werken en de timing?</t>
+  </si>
+  <si>
+    <t>Zijn de volgende documenten: opmaak bestek, dossier omgevingsvergunning en grondverwerving van het inrichtingsproject, al beschikbaar? Zo ja, kan de minister ze bezorgen?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen zij dit dossier agenderen?</t>
+  </si>
+  <si>
+    <t>- Hoe vaak vind je het moeilijk om met gamen te stoppen?</t>
+  </si>
+  <si>
+    <t>d) Zijn er tijdens de verschillende afvissingsperiodes (merkwaardige) nieuwe vissoorten waargenomen en zo ja, welke vissoorten?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende fases van de renovatie van de Beverentunnel, met vermelding van de timing en het budget?</t>
+  </si>
+  <si>
+    <t>Waarom zijn die bedragen ook niet opgenomen in het ontwerp GIP 2024 of het doorkijk GIP 2025 of het doorkijk GIP 2026?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de belangrijkste personeels- en werkingskosten van de VLIR in 2022 in het kader van de bovenvermelde beheersovereenkomst?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister de actie?</t>
+  </si>
+  <si>
+    <t>Welke investering wordt met dit budget gepland?</t>
+  </si>
+  <si>
+    <t>Zijn die ondertussen afgerond? Zo ja, wat zijn de resultaten van de studies?</t>
+  </si>
+  <si>
+    <t>In welke mate is er momenteel signalisatie aanwezig om de zichtbaarheid ter plaatse te garanderen?</t>
+  </si>
+  <si>
+    <t>b) Is 9 miljoen euro voldoende om alle in aanmerking komende aanvragen te subsidiëren?</t>
+  </si>
+  <si>
+    <t>Verwacht de minister een toename van het aantal personen, ouder dan 25 jaar, die een nieuwe opleiding hoger onderwijs zullen starten?</t>
+  </si>
+  <si>
+    <t>Binnen welk budget wordt de financiering van 850.000 euro voor de bouw van deze brug opgenomen?</t>
+  </si>
+  <si>
+    <t>Overweegt de minister om de vervoersgarantie uit te breiden tot jongeren die te maken hebben met een langdurige pleegzorgsituatie? Zo ja, welke initiatieven zal de minister nemen om het te realiseren en wat is de verdere timing?</t>
+  </si>
+  <si>
+    <t>a) Welke vooruitgang wordt de komende jaren verwacht?</t>
+  </si>
+  <si>
+    <t>Kadert het budget binnen de vervanging van de Boudewijnbrug?</t>
+  </si>
+  <si>
+    <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2012-2013, 2013-2014, 2014-2015, 2015-2016, 2016-2017, 2017-2018, 2018-2019, 2019-2020, 2020-2021, 2021-2022 en 2022-2023 voor de opleidingen burgerlijk ingenieur en burgerlijk ingenieur-architect?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zou worden?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de natuurdoelstellingen van de Antwerpse haven?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister het aantal aanvragen?</t>
+  </si>
+  <si>
+    <t>Zijn de betonblokken bij nacht voldoende zichtbaar?</t>
+  </si>
+  <si>
+    <t>Kan de minister ook een opsplitseng maken per categorie van ernstige of blijvende tekortkoming aan huurdersverplichtingen?</t>
+  </si>
+  <si>
+    <t>Heeft de minister, haar kabinet of administratie al eerder gelijkaardige meldingen ontvangen over de zichtbaarheid op de expresweg in Oud-Heverlee?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister die samenwerking?</t>
+  </si>
+  <si>
+    <t>Wanneer wordt beslist over de toewijzing van de subsidies?</t>
+  </si>
+  <si>
+    <t>Wat is de effectieve startdatum van de werken?</t>
+  </si>
+  <si>
+    <t>Zo ja, welke plannen werden daarover al vastgelegd qua kosten, timing en dergelijke?</t>
+  </si>
+  <si>
+    <t>Welke middelen werden daarvoor vrijgemaakt?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zou worden?</t>
+  </si>
+  <si>
+    <t>Wanneer worden de resultaten verwacht?</t>
+  </si>
+  <si>
+    <t>Wat zijn de meest voorkomende gezinssituaties van mantelzorgers?</t>
+  </si>
+  <si>
+    <t>a) Hoe evalueert de minister de cijfers?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht gegeven worden voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor de instandhouding van haveninfrastructuur op de Schelde in het Antwerpse havengebied?</t>
+  </si>
+  <si>
+    <t>- Hoe vaak voel je je onrustig, gestrest of geïrriteerd omdat je niet kunt gamen?</t>
+  </si>
+  <si>
+    <t>Wat is voor de Poelaertplas en de Gaverplas de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
+  </si>
+  <si>
+    <t>Heeft de minister er zicht op of die problemen zich nog steeds voordoen? Zo ja:a) Is er zicht op de grootte van de problemen?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht gegeven worden voor welke concrete investeringen dit budget gebruikt zal worden?</t>
+  </si>
+  <si>
+    <t>Kan zij een overzicht geven van de verschillende types weggebruikers (fietsers, voetgangers, personenwagens, vrachtwagens enzovoort)?</t>
+  </si>
+  <si>
+    <t>Is de studie al afgerond? Zo ja, wat zijn de resultaten en conclusies van de studie?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister de situatie op de expresweg?</t>
+  </si>
+  <si>
+    <t>Het aantal effectieve dossiers geeft weer hoeveel ontbindingen of uithuiszettingen voltrokken worden, onafhankelijk van de vraag of het vertrek vrijwillig of na een tussenkomst van de rechter gebeurd is.</t>
+  </si>
+  <si>
+    <t>Zijn de nodige onderdelen ondertussen geleverd?</t>
+  </si>
+  <si>
+    <t>Wat is de waarde van die gebouwen?</t>
+  </si>
+  <si>
+    <t>Op welke termijn zal de Vlaamse Vaccinatiekoepel een advies formuleren over de uitrol twee nieuwe RSV-vaccins die pas in het najaar en volgend jaar op de markt zullen komen?</t>
+  </si>
+  <si>
+    <t>- Hoe vaak zeggen anderen (bijvoorbeeld vrienden of ouders) dat je minder zou moeten gamen?</t>
+  </si>
+  <si>
+    <t>Wanneer verwacht de minister dat alle onteigeningsdossiers afgerond zullen zijn?</t>
+  </si>
+  <si>
+    <t>Blijft het oorspronkelijk vastgestelde budget nog altijd gehandhaafd, zoals besproken in eerdere fasen van het project?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister het aantal consultaties van de handleiding?</t>
+  </si>
+  <si>
+    <t>Kan een overzicht worden gegeven voor elk jaar van deze legislatuur van de investeringen die door de minister en haar administratie werden uitgevoerd voor het grondbeheer in de Antwerpse haven?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen de resultaten en conclusies van de studie bekend zijn?</t>
+  </si>
+  <si>
+    <t>Voor welke slibverwerkingseenheid of -eenheden wordt de exploitatie hiermee voorzien?</t>
+  </si>
+  <si>
+    <t>Op welke locaties moet slib verwerkt worden, van welke locaties is dit slib afkomstig en wat wordt met dit slib concreet gedaan?</t>
+  </si>
+  <si>
+    <t>Indien het een budgettaire kwestie zou zijn hoe verklaart De Lijn dat ze per inwoner inwoners van de vervoerregio Limburg?</t>
+  </si>
+  <si>
+    <t>Waarom geldt voor statutairen de 60%-norm?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van alle Vlaamse evenementen met inbegrip van naam event, naam organisator, datum event, locatie, beknopte eventomschrijving en link met EU/overkoepelende EU-voorzitterschapsthema’s?</t>
+  </si>
+  <si>
+    <t>Wat is de mening van de minister betreffende de evolutie van het aantal gevallen van agressie naar medewerkers en mandatarissen van de lokale besturen in Vlaanderen?</t>
+  </si>
+  <si>
+    <t>c) Zijn er bijzondere evoluties op te merken in vergelijking met voorgaande jaren?</t>
+  </si>
+  <si>
+    <t>Met welke firma’s zijn er vandaag baggercontracten afgesloten en welke baggerwerken staan er deze legislatuur nog op til wat betreft de IJzer, alsook wat betreft de overige bevaarbare en niet-bevaarbare waterlopen in het IJzerbekken?</t>
+  </si>
+  <si>
+    <t>Er wordt enkel geregistreerd hoeveel kabinetsmedewerkers uit dienst gaan.</t>
+  </si>
+  <si>
+    <t>- Hoe vaak ga je gamen omdat je je rot voelt?</t>
+  </si>
+  <si>
+    <t>Voorziet de minister voor 2024 opnieuw in het reguliere toelagebedrag van 250.000 euro voor de VLIR, of zijn bijkomende middelen nodig?</t>
+  </si>
+  <si>
+    <t>Zijn die ondertussen klaar?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van het type ongevallen?</t>
+  </si>
+  <si>
+    <t>Welke investeringen konden worden gepland met het budget van 598.000 euro dat in het GIP 2023 gereserveerd werd voor de Kallosluis?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister de cijfers van de verschillende leeftijdscategorieën?</t>
+  </si>
+  <si>
+    <t>- Hoe vaak maak je je huiswerk snel en slordig af om te kunnen gamen?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende stappen in dit dossier (fasering, timing en planning)?</t>
+  </si>
+  <si>
+    <t>Wat is het tracé van de nieuwe ontsluitingsweg naar de westelijke oever van het veer van Langerbrugge?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende stappen in het dossier (fasering, timing en planning)?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister de bestaande mechanismen?</t>
+  </si>
+  <si>
+    <t>Wanneer wordt verwacht met het eenvoudigere financieringsmodel aan de slag te kunnen gaan?</t>
+  </si>
+  <si>
+    <t>Wat zijn de volgende stappen in de timing in het dossier?</t>
+  </si>
+  <si>
+    <t>Werkte het Agentschap Binnenlands Bestuur in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+  </si>
+  <si>
+    <t>Welke investeringen konden worden gepland met het budget van 850.000 euro dat in het GIP 2023 gereserveerd werd voor de Boudewijn- en Van Cauwelaertsluis?</t>
+  </si>
+  <si>
+    <t>Bracht het hijsen van de 230 ton zware brug met de grote kranen over de bomen langs de Ringvaart/R4 extra kosten met zich mee? Zo ja, wat is de extra kostprijs?</t>
+  </si>
+  <si>
+    <t>Werkte het Agentschap Integratie en Inburgering in deze legislatuur al samen met Montasser AlDe’emeh? Zo ja, hoe verliep die samenwerking concreet, en wat waren de beoogde resultaten?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister die cijfers (vraag 1 tot en met 6) van studenten die meerdere richtingen starten?</t>
+  </si>
+  <si>
+    <t>Kan er een overzicht worden gegeven voor welke concrete investeringen dit budget gebruikt zal worden?</t>
+  </si>
+  <si>
+    <t>Hoe evalueert de minister het systeem van lokale trajectcontroles?</t>
+  </si>
+  <si>
+    <t>Wanneer exact werd de studie aanbesteed voor de uitvoering van een technische ontwerpstudie van het gekozen tracé?</t>
+  </si>
+  <si>
+    <t>Welke slibverwerkingseenheid of -eenheden worden hiermee gerealiseerd?</t>
+  </si>
+  <si>
+    <t>Welke vooruitgang werd hier in 2023 geboekt?</t>
+  </si>
+  <si>
+    <t>Wat is voor de Prosperpolder de kwaliteitsverbetering of kwaliteitsverslechtering van het water (fysico-chemische en biologische kwaliteit) voor het jaar 2023 of kan de minister de meest recente beschikbare gegevens en cijfers meedelen?</t>
+  </si>
+  <si>
+    <t>Welke maatregelen neemt de minister en welk budget zal ze volgend jaar daarvoor vrijmaken?</t>
+  </si>
+  <si>
+    <t>Wordt er werk gemaakt van het doortrekken van het gelijke speelveld naar (emissievrije) vrachtwagens met een maximale laadcapaciteit van 44 ton, zodat ook deze emissievrije vrachtwagens tot 2 ton meer kunnen laden? Zo ja, kan de minister daar een timing en een stand van zaken van geven?</t>
+  </si>
+  <si>
+    <t>a) Wat was het studierendement van die studenten voor de volgende academiejaren: 2005-2006 tot en met 2022-2023 voor de opleidingen bio-industriële wetenschappen, biowetenschappen, industriële wetenschappen en bachelor engineering technology?</t>
+  </si>
+  <si>
+    <t>Wat is de huidige stand van zaken in het proces voor een eenvoudiger financieringsmodel, met in het bijzonder de vergoeding voor variabele prestaties?</t>
+  </si>
+  <si>
+    <t>Over de starttoets - onderdeel wiskunde:a) Welke onderdelen worden en werden er getoetst bij de starttoets wiskunde?</t>
+  </si>
+  <si>
+    <t>632 van 13 april 2021 gaf de minister a) Zijn er voor de voorbije academiejaren 2022-2023 en de opstart van het huidige academiejaar 2023-2024 al (voorlopige) effecten meetbaar? Zo ja, welke?</t>
+  </si>
+  <si>
+    <t>In het ontwerp GIP 2024 wordt onder nummer GIP003495/01: “Boudewijn- en Van Cauwelaertsluis” een budget van 360.000 euro gereserveerd Kan er een overzicht worden gegeven voor welke concrete investeringen het budget gebruikt zal worden?</t>
+  </si>
+  <si>
+    <t>Kan de minister een overzicht geven van de volgende stappen in het dossier: fasering, timing, planning en de verschillende processen?</t>
+  </si>
+  <si>
+    <t>Is de omgevingsvergunning al verleend? Zo ja, wanneer?</t>
+  </si>
+  <si>
+    <t>Vroeg u de voormalige renovatiepremie voor dakwerken tussen 7 mei 2022 en 30 juni 2022 (de dag na de bekendmaking van het besluit in het Belgisch Staatsblad)?</t>
+  </si>
+  <si>
+    <t>b) Kan de minister de ligging van de staalnameplaatsen/meetplaatsen meedelen, een overzichtstabel van de totale vangsten weergeven en eventueel ook een tabel met de effectieve vangst per vissoort en per staalnameplaats?</t>
+  </si>
+  <si>
+    <t>Hoe apprecieert de minister die cijfers?</t>
+  </si>
+  <si>
+    <t>b) Wanneer wordt een optimaal niveau van de waterkwaliteit verwacht?</t>
+  </si>
+  <si>
+    <t>Wanneer zullen de werken worden aangevat?</t>
+  </si>
+  <si>
+    <t>- In één melding kunnen meerdere mogelijkheden aangeduid worden- In sommige gevallen is het niet altijd duidelijk wie slachtoffer en of pleger is- In sommige gevallen gaat het om meerdere slachtoffers/plegersSinds augustus 2021 is er een nieuw meldformulier, dat meer kwaliteitsvolle data oplevert.</t>
+  </si>
+  <si>
+    <t>Welke fasering en planning zal gehanteerd worden bij de aanpak van het kruispunt?</t>
+  </si>
+  <si>
+    <t>Waarom krijgen enkel (emissievrije) vrachtwagens die aan bepaalde voordelen voldoen, zoals een drieassig trekkend en getrokken voertuig, een grotere maximale laadcapaciteit?</t>
+  </si>
+  <si>
+    <t>Over de starttoets - onderdeel Nederlands:a) Welke onderdelen worden en werden er getoetst bij de starttoets Nederlands?</t>
+  </si>
+  <si>
+    <t>b) Hoe evalueert de minister de starttoetsen tot nu toe?</t>
+  </si>
+  <si>
+    <t>Heeft de minister in het bijzonder een aanvraag van het gemeentebestuur Schoten over de Schoten Vaart (of E10-plas) ontvangen?</t>
   </si>
 </sst>
 </file>
@@ -5065,10 +5467,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B1801"/>
+  <dimension ref="A1:B2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1600" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1618" sqref="B1618"/>
+    <sheetView tabSelected="1" topLeftCell="A1785" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1799" sqref="G1799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19485,6 +19887,1606 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1802" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1802" s="6" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1803" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1804" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1805" s="6" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1806" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1807" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1808" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1809" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1810" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1811" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1812" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1813" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1814" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1815" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1816" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1817" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1818" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1819" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1820" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1821" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1822" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1823" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1824" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1825" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1826" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1827" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1828" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1829" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1830" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1831" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1832" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1833" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1834" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1835" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1836" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1837" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1838" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1839" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1840" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1841" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1842" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1843" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1844" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1845" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1846" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1847" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1848" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1849" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1850" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1851" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1852" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1853" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1854" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1855" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1856" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1857" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1858" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1859" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1860" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1861" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1862" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1863" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1864" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1865" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1866" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1867" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1868" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1869" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1870" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1871" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1872" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1873" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1874" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1875" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1876" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1877" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1878" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1879" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1880" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1881" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1882" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1883" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1884" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1885" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1886" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1887" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1888" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1889" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1890" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1891" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1892" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1893" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1894" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1895" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1896" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1897" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1898" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1899" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1900" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1901" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1902" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1903" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1904" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1905" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1906" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1907" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1908" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1909" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1910" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1911" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1912" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1913" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1914" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1915" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1916" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1917" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1918" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1919" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1920" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1921" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1922" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1923" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1924" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1925" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1926" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1927" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1928" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1929" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1930" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1931" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1932" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1933" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1934" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1935" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1936" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1937" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1938" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1939" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1940" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1941" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1942" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1943" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1944" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1945" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1946" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1947" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1948" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1949" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1950" s="6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1951" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1952" s="6" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1953" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1954" s="6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1955" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1956" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1957" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1958" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1959" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1960" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1961" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1962" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1963" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1964" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1965" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1966" s="6" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1967" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1968" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1969" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1970" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1971" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1972" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1973" s="6" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1974" s="6" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1975" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1976" s="6" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1977" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1978" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1979" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1980" s="6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1981" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1982" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1983" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1984" s="6" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1985" s="6" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1986" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1987" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1988" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1989" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1990" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1991" s="6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1992" s="6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1993" s="6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1994" s="6" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1995" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1996" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1997" s="6" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1998" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1999" s="6" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2000" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B2000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2001" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B2001">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
